--- a/sqls/teamBテーブル定義書.xlsx
+++ b/sqls/teamBテーブル定義書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2230128\Desktop\dbwk\systemDev2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sites\B\sqls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEDECD7-354E-4686-BE20-E45F48C7D2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2844CBFB-4BEB-49DC-8C37-9FA25705EF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="6216" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8880" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="教員" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="120">
   <si>
     <t>テーブル名（名称）</t>
     <rPh sb="4" eb="5">
@@ -830,6 +830,10 @@
     <rPh sb="12" eb="14">
       <t>バンゴウ</t>
     </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>CHAR(7)</t>
     <phoneticPr fontId="9"/>
   </si>
 </sst>
@@ -3711,7 +3715,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3850,7 +3854,7 @@
         <v>35</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
@@ -4278,7 +4282,7 @@
   </sheetPr>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -5399,8 +5403,8 @@
   </sheetPr>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5570,7 +5574,7 @@
         <v>35</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
